--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430931.5783593914</v>
+        <v>428450.6585339325</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545851</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3896578136923</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104947</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>356.6107183493422</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>69.75231053609672</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>88.4420253465214</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271172</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545851</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>47.40123163129243</v>
+        <v>44.75640512426536</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104942</v>
+        <v>82.26761520104945</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689272</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.817218682479</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>86.260514974877</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>76.96714041075737</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292095</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652887</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149641</v>
+        <v>239.1132486668481</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245688</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>97.90474570419498</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
         <v>275.3456855116941</v>
@@ -1910,7 +1910,7 @@
         <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503347</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3363911711803</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290892</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249344</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085026</v>
+        <v>72.5386794408502</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721233</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330931</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860187</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411917</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643284</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S19" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704503</v>
+        <v>208.0533602654122</v>
       </c>
       <c r="U19" t="n">
-        <v>212.316554999894</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181091</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308721</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833183</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149641</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665429</v>
+        <v>307.9637310891304</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245688</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531831</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>196.1505424627068</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
         <v>295.8358174727501</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249343</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085025</v>
+        <v>134.9383736358117</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721232</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533093</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411916</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432839</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S22" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181091</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308721</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.0890643413379</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149641</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816015</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245692</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
         <v>253.856975264416</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249343</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085025</v>
+        <v>72.5386794408502</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721232</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533093</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411919</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432842</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S25" t="n">
-        <v>115.873742125723</v>
+        <v>178.2734363206846</v>
       </c>
       <c r="T25" t="n">
-        <v>208.0533602654115</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181091</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308721</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538323</v>
+        <v>133.1067657762833</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>89.2772329506096</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>92.0843051033369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592154</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279485</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309232</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>170.2318734253268</v>
       </c>
       <c r="Y40" t="n">
-        <v>163.1068713883836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>90.95618068285802</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439391</v>
       </c>
       <c r="S43" t="n">
         <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775078</v>
@@ -3964,7 +3964,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.191325513607</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>93.13769105450135</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
         <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
         <v>47.07029468621576</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>230.734056241902</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,7 +4198,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.221991434246</v>
+        <v>1142.041411855986</v>
       </c>
       <c r="C11" t="n">
-        <v>1349.451541753558</v>
+        <v>800.2709621752977</v>
       </c>
       <c r="D11" t="n">
-        <v>1018.377910406531</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="E11" t="n">
-        <v>1018.377910406531</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="F11" t="n">
-        <v>634.5840728766473</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="G11" t="n">
-        <v>246.7036899813675</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039936</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.850719956089</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2759.850719956089</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2413.577028954733</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2050.629764238644</v>
+        <v>1501.449184660384</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,46 +5124,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>829.9819732849496</v>
+        <v>418.3126375609367</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5250939555591</v>
+        <v>276.5685218927532</v>
       </c>
       <c r="D13" t="n">
-        <v>636.600521802947</v>
+        <v>276.5685218927532</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802775</v>
+        <v>155.8474955700838</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420907</v>
+        <v>155.8474955700838</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765331</v>
+        <v>155.8474955700838</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705054</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145083</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1976.008292145083</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1714.09749253045</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1486.605071584287</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1224.37996880705</v>
+        <v>967.1670306535527</v>
       </c>
       <c r="X13" t="n">
-        <v>1023.582485168756</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y13" t="n">
-        <v>829.9819732849496</v>
+        <v>572.7690351314527</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1544.431083779911</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C14" t="n">
-        <v>1202.660634099223</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="D14" t="n">
-        <v>871.5870027521963</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="E14" t="n">
-        <v>512.9908174136757</v>
+        <v>780.7108086188946</v>
       </c>
       <c r="F14" t="n">
-        <v>129.1969798837918</v>
+        <v>396.9169710890107</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299106</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299106</v>
+        <v>81.31694793299108</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
@@ -5291,37 +5291,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395991</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3242.507220395991</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2938.636400312144</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2613.059812301753</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2266.786121300398</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y14" t="n">
-        <v>1903.838856584309</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927795</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>645.444844457134</v>
+        <v>418.3126375609355</v>
       </c>
       <c r="C16" t="n">
-        <v>503.7007287889506</v>
+        <v>276.5685218927522</v>
       </c>
       <c r="D16" t="n">
-        <v>503.7007287889506</v>
+        <v>153.64394974014</v>
       </c>
       <c r="E16" t="n">
-        <v>382.9797024662811</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2818222280944</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5372359546021</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003745</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.923822070506</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.502109058534</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1945.927560887784</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1684.016761273151</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.524340326987</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1194.29923754975</v>
+        <v>967.1670306535517</v>
       </c>
       <c r="X16" t="n">
-        <v>993.5017539114565</v>
+        <v>766.369547015258</v>
       </c>
       <c r="Y16" t="n">
-        <v>799.90124202765</v>
+        <v>572.7690351314516</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666653</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934038</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535085</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446372</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628265</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.620805936083</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>3059.727123406593</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344276</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290993</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522978</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,31 +5607,31 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872293</v>
+        <v>569.1217789872288</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671193</v>
+        <v>474.8272962671189</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625804</v>
+        <v>399.3523570625801</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879842</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978707</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.1960934060412</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356252</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817305</v>
+        <v>822.2794225454048</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459973</v>
+        <v>676.1285436096716</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1518.904057542</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809386</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104321</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446363</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628256</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V20" t="n">
-        <v>2781.600168344275</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344275</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290992</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522977</v>
+        <v>1830.862197398325</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872292</v>
+        <v>632.1517731235535</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671191</v>
+        <v>537.8572904034436</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625803</v>
+        <v>462.3823511989048</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879841</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604117</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1647.936691865763</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817305</v>
+        <v>885.3094166817295</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.128543609672</v>
+        <v>739.1585377459963</v>
       </c>
     </row>
     <row r="23">
@@ -5972,19 +5972,19 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349351</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5993,31 +5993,31 @@
         <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844414</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1580.642377391687</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575121</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454458</v>
+        <v>2901.750690780205</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3296.525057137383</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3544.811418893065</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932665</v>
@@ -6060,25 +6060,25 @@
         <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094449</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061124</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775281</v>
+        <v>575.9874173775279</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574182</v>
+        <v>481.6929346574179</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528793</v>
+        <v>406.2179954528791</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782831</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881696</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706855</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634017</v>
+        <v>96.06173179634014</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6172,7 +6172,7 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478739</v>
+        <v>1738.897251342415</v>
       </c>
       <c r="T25" t="n">
         <v>1591.772336119738</v>
@@ -6184,13 +6184,13 @@
         <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259245</v>
+        <v>982.4929116259243</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357041</v>
+        <v>829.1450609357039</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999709</v>
+        <v>682.9941819999707</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,61 +6212,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2468.655602521439</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400776</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,31 +6300,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>878.8992091819734</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1329.933422430382</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2410.244144161089</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572845</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.154208495152</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676539</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803193</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6616,16 +6616,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6680,70 +6680,70 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668976</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1119.741581677076</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>1653.273486349001</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2200.052303407783</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737238</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6853,16 +6853,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,37 +6920,37 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307329</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6959,16 +6959,16 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
@@ -7011,55 +7011,55 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>839.5784050866012</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C37" t="n">
-        <v>769.3136567325377</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D37" t="n">
-        <v>619.1970173202019</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>471.2839237378088</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>324.3939762398984</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>156.6911396146174</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>985.4928044205423</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912684</v>
+        <v>856.1746880963683</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.5554353429974</v>
+        <v>635.3821089528382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,40 +7184,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.259395817092</v>
+        <v>500.9308303909351</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630285</v>
+        <v>430.6660820368717</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245363</v>
+        <v>379.2208771983795</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>329.97921818983</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>281.7607052657631</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552288</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W40" t="n">
-        <v>877.9803925153274</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X40" t="n">
-        <v>649.99084161731</v>
+        <v>903.3718743647049</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734882</v>
+        <v>682.5792952211748</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464978</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
@@ -7409,13 +7409,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
@@ -7424,10 +7424,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866012</v>
+        <v>500.9308303909354</v>
       </c>
       <c r="C43" t="n">
-        <v>769.3136567325377</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>619.1970173202019</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1223.435726151996</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>1032.689990688879</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>903.3718743647053</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429974</v>
+        <v>682.5792952211751</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7673,22 +7673,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960652</v>
@@ -7737,16 +7737,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.9069705127577</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>571.9707875848508</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722231</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>428.6506527636735</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332018</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150356</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>706.0290052170183</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429974</v>
+        <v>583.9078606473316</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430634</v>
+        <v>157.2353108430624</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729013</v>
+        <v>184.4039433728997</v>
       </c>
       <c r="L8" t="n">
-        <v>191.494890938961</v>
+        <v>191.494890938959</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333074</v>
+        <v>181.0856325333052</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830248</v>
+        <v>179.3553748830225</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383997</v>
+        <v>182.8301554383976</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586591</v>
+        <v>190.8908035586572</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266128</v>
+        <v>192.0103836266115</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.656200187597</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372536</v>
+        <v>113.6031223372526</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672278</v>
+        <v>105.9629718672264</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253598</v>
+        <v>104.1013981253581</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677709</v>
+        <v>92.30246558677536</v>
       </c>
       <c r="O9" t="n">
-        <v>106.882960835974</v>
+        <v>106.8829608359725</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798328</v>
+        <v>105.3113487798315</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615452</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564652</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.1996074085221</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140772</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530927</v>
+        <v>120.6694600530919</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662707</v>
+        <v>122.50808566627</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.612932010175427e-12</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>339.8144253784356</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.0980055054536</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>336.8335818149117</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665437</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>277.832108723649</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>65.51711806374414</v>
       </c>
       <c r="M32" t="n">
-        <v>287.001785447392</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>89.29795998650185</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579957</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302867</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.707073719584892</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.911833594811</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.57436397540478</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.39284298067292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292099</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890429</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>336.6003474350347</v>
+        <v>339.2451739420617</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>33.25330108456578</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>62.13852126114449</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271172</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292095</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>41.67450974811587</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531831</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>155.952229560221</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.07135577741246379</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>57.70643280170919</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1093295.76147151</v>
+        <v>1093295.761471509</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>905885.380408841</v>
+        <v>905885.3804088408</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>985499.1353272538</v>
+        <v>985499.1353272537</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1031499.661514055</v>
+        <v>1031499.661514056</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430120.0778264449</v>
+        <v>430120.0778264452</v>
       </c>
       <c r="C2" t="n">
         <v>430120.077826445</v>
       </c>
       <c r="D2" t="n">
-        <v>430131.8016481219</v>
+        <v>430131.801648122</v>
       </c>
       <c r="E2" t="n">
         <v>383008.5004751119</v>
       </c>
       <c r="F2" t="n">
-        <v>383008.500475112</v>
+        <v>383008.5004751119</v>
       </c>
       <c r="G2" t="n">
-        <v>417128.6811544314</v>
+        <v>417128.6811544316</v>
       </c>
       <c r="H2" t="n">
-        <v>417128.6811544316</v>
+        <v>417128.6811544315</v>
       </c>
       <c r="I2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="J2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="K2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="L2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="M2" t="n">
         <v>431046.9291787485</v>
       </c>
-      <c r="M2" t="n">
-        <v>431046.9291787484</v>
-      </c>
       <c r="N2" t="n">
-        <v>431046.9291787484</v>
+        <v>431046.9291787482</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787483</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787487</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552202</v>
+        <v>59764.55367552467</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.97216363</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487387</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983329</v>
+        <v>22821.46782983381</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179692</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>1.023181539494544e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954654</v>
+        <v>430603.4278954644</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364968</v>
+        <v>40024.16194364977</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364964</v>
+        <v>40024.16194364974</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509192</v>
+        <v>77052.32230509195</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509189</v>
+        <v>77052.32230509196</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754386</v>
+        <v>90617.5102775439</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.9551969959</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="M4" t="n">
+        <v>92183.89891818173</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92183.89891818183</v>
+      </c>
+      <c r="O4" t="n">
         <v>92183.89891818175</v>
       </c>
-      <c r="N4" t="n">
-        <v>92183.89891818177</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92183.89891818177</v>
-      </c>
       <c r="P4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.8989181818</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186634</v>
+        <v>35148.90543186641</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482646</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521486</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55907.51272252024</v>
+        <v>-55911.92630038812</v>
       </c>
       <c r="C6" t="n">
-        <v>-55907.51272252012</v>
+        <v>-55911.92630038824</v>
       </c>
       <c r="D6" t="n">
-        <v>-95385.08535473187</v>
+        <v>-95389.44310487929</v>
       </c>
       <c r="E6" t="n">
-        <v>-822824.1239969969</v>
+        <v>-823052.8784193927</v>
       </c>
       <c r="F6" t="n">
-        <v>266414.8481666356</v>
+        <v>266186.0937442377</v>
       </c>
       <c r="G6" t="n">
-        <v>221977.6064292507</v>
+        <v>221911.3290577063</v>
       </c>
       <c r="H6" t="n">
-        <v>259557.7157241248</v>
+        <v>259491.4383525803</v>
       </c>
       <c r="I6" t="n">
-        <v>231871.4227695297</v>
+        <v>231871.4227695289</v>
       </c>
       <c r="J6" t="n">
-        <v>227298.5992851499</v>
+        <v>227298.5992851495</v>
       </c>
       <c r="K6" t="n">
-        <v>252708.0323069469</v>
+        <v>252708.0323069466</v>
       </c>
       <c r="L6" t="n">
-        <v>215127.9230120724</v>
+        <v>215127.9230120727</v>
       </c>
       <c r="M6" t="n">
-        <v>54176.3329615925</v>
+        <v>54176.33296159277</v>
       </c>
       <c r="N6" t="n">
+        <v>256344.4329543164</v>
+      </c>
+      <c r="O6" t="n">
         <v>256344.4329543168</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>256344.432954317</v>
-      </c>
-      <c r="P6" t="n">
-        <v>256344.4329543168</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810502</v>
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790553</v>
+        <v>69.78465283790862</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810301</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951243</v>
+        <v>50.7095836095124</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790553</v>
+        <v>69.78465283790862</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873773</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104724</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780177</v>
+        <v>132.2465643780169</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.627234303657</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672113</v>
+        <v>84.2286184667209</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698753</v>
+        <v>90.83829126987487</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519095</v>
+        <v>84.46220888519056</v>
       </c>
       <c r="K10" t="n">
-        <v>7.64903505099052</v>
+        <v>7.64903505098987</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317065</v>
+        <v>75.62456067317018</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="C19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="D19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="E19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="F19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="G19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="H19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="I19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="S19" t="n">
+        <v>73.89528320571897</v>
+      </c>
+      <c r="T19" t="n">
         <v>11.49558901075702</v>
       </c>
-      <c r="C19" t="n">
-        <v>73.89528320571891</v>
-      </c>
-      <c r="D19" t="n">
-        <v>73.89528320571891</v>
-      </c>
-      <c r="E19" t="n">
-        <v>73.89528320571891</v>
-      </c>
-      <c r="F19" t="n">
-        <v>73.89528320571891</v>
-      </c>
-      <c r="G19" t="n">
-        <v>73.89528320571891</v>
-      </c>
-      <c r="H19" t="n">
-        <v>73.89528320571891</v>
-      </c>
-      <c r="I19" t="n">
-        <v>73.89528320571891</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>73.89528320571891</v>
-      </c>
-      <c r="S19" t="n">
-        <v>73.89528320571891</v>
-      </c>
-      <c r="T19" t="n">
-        <v>73.89528320571891</v>
-      </c>
       <c r="U19" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571893</v>
+        <v>11.4955890107575</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.4955890107569</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571893</v>
+        <v>11.49558901075733</v>
       </c>
       <c r="T25" t="n">
-        <v>11.4955890107577</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810499</v>
+        <v>46.72521440565401</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>55.47778196371118</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>55.47778196371036</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.47778196371118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="C43" t="n">
+      <c r="E43" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>55.47778196371115</v>
-      </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,13 +30663,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>46.72521440565344</v>
       </c>
       <c r="S43" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>97.68472022810502</v>
@@ -30684,7 +30684,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30855,19 +30855,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>55.47778196371101</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
         <v>97.68472022810502</v>
@@ -30903,13 +30903,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>55.47778196371084</v>
       </c>
       <c r="V46" t="n">
         <v>97.68472022810502</v>
@@ -30918,7 +30918,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>97.68472022810502</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413285</v>
+        <v>0.280541317941341</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366631</v>
+        <v>2.873093772366759</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993308</v>
+        <v>10.81556915993356</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362286</v>
+        <v>23.81059368362391</v>
       </c>
       <c r="K8" t="n">
-        <v>35.6859076720793</v>
+        <v>35.68590767208088</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102624</v>
+        <v>44.27152403102821</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396534</v>
+        <v>49.26060069396753</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356614</v>
+        <v>50.05768871356837</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328706</v>
+        <v>47.26805598328915</v>
       </c>
       <c r="P8" t="n">
-        <v>40.3421921966105</v>
+        <v>40.34219219661229</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783666</v>
+        <v>30.29530624783801</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313199</v>
+        <v>17.62255356313278</v>
       </c>
       <c r="S8" t="n">
-        <v>6.39283528258803</v>
+        <v>6.392835282588314</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288166</v>
+        <v>1.228069619288221</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530628</v>
+        <v>0.02244330543530727</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796458</v>
+        <v>0.1501028381796525</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840264</v>
+        <v>1.449677410840329</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693948</v>
+        <v>5.168014384694177</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906909</v>
+        <v>14.18142647906972</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710536</v>
+        <v>24.23831663710643</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264635</v>
+        <v>32.5914079126478</v>
       </c>
       <c r="M9" t="n">
-        <v>38.0326357966585</v>
+        <v>38.03263579666019</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655622</v>
+        <v>39.03924649655796</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847038</v>
+        <v>35.71328360847198</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449746</v>
+        <v>28.66305863449874</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.1604956244755</v>
+        <v>19.16049562447635</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767839</v>
+        <v>9.319542882768253</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608771</v>
+        <v>2.788094384608895</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890109</v>
+        <v>0.6050197731890378</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345126</v>
+        <v>0.009875186722345565</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486821</v>
+        <v>0.1258411772486877</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811011</v>
+        <v>1.11884246681106</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78438740307855</v>
+        <v>3.784387403078718</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481823</v>
+        <v>8.896971231482217</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489233</v>
+        <v>14.62045677489298</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477225</v>
+        <v>18.70915102477308</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908204</v>
+        <v>19.72617653908292</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115515</v>
+        <v>19.25713215115601</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875009</v>
+        <v>17.78707839875088</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287696</v>
+        <v>15.21991838287764</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852373</v>
+        <v>10.5374825785242</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381649</v>
+        <v>5.658276933381901</v>
       </c>
       <c r="S10" t="n">
-        <v>2.19306851623385</v>
+        <v>2.193068516233947</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625505</v>
+        <v>0.5376850300625744</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564485</v>
+        <v>0.00686406421356479</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035316</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019261</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019259</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>795.4045397707675</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>782.1510063936726</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060957</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>875.7546976451382</v>
       </c>
       <c r="N26" t="n">
-        <v>827.137011779455</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629132</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887906</v>
@@ -36765,13 +36765,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P28" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>615.0233952790494</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37072,25 +37072,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>521.1072324560761</v>
       </c>
       <c r="M32" t="n">
-        <v>825.9229012776185</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37795,7 +37795,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302278</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
